--- a/data/trans_orig/P74B-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P74B-Clase-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>12566</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6770</v>
+        <v>6275</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>21859</v>
+        <v>22125</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07156862373722966</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03855622872920721</v>
+        <v>0.0357382077205767</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1244980669312088</v>
+        <v>0.1260130034400745</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -764,19 +764,19 @@
         <v>20754</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>16607</v>
+        <v>16334</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>23696</v>
+        <v>23687</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8414209053017394</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6732696630406703</v>
+        <v>0.66222231243045</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9606904600451251</v>
+        <v>0.9603051359976085</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>32</v>
@@ -785,19 +785,19 @@
         <v>33320</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>23991</v>
+        <v>23619</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>46710</v>
+        <v>44376</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1663973790319147</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1198102534358267</v>
+        <v>0.1179503143414627</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2332656208170121</v>
+        <v>0.2216106600149193</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>163012</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>153719</v>
+        <v>153453</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>168808</v>
+        <v>169303</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9284313762627704</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8755019330687915</v>
+        <v>0.8739869965599247</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9614437712707929</v>
+        <v>0.9642617922794232</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>4</v>
@@ -835,19 +835,19 @@
         <v>3912</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>970</v>
+        <v>979</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8059</v>
+        <v>8332</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1585790946982605</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03930953995487491</v>
+        <v>0.03969486400239153</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3267303369593298</v>
+        <v>0.337777687569549</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>163</v>
@@ -856,19 +856,19 @@
         <v>166923</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>153533</v>
+        <v>155867</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>176252</v>
+        <v>176624</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8336026209680852</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7667343791829878</v>
+        <v>0.7783893399850804</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8801897465641733</v>
+        <v>0.8820496856585373</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>9889</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5054</v>
+        <v>4394</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>18476</v>
+        <v>17798</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06441583736993818</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0329187154894556</v>
+        <v>0.02861897827070245</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1203499931036462</v>
+        <v>0.1159295634346779</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>13</v>
@@ -981,19 +981,19 @@
         <v>14383</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9149</v>
+        <v>9014</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>18228</v>
+        <v>18267</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.711195612262163</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4524020912646937</v>
+        <v>0.4457446928181186</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9013435236165973</v>
+        <v>0.9032974699081496</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>22</v>
@@ -1002,19 +1002,19 @@
         <v>24271</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>15222</v>
+        <v>16362</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>34766</v>
+        <v>35782</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1396967898395458</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08761099776793346</v>
+        <v>0.09417153657066435</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2001013656835322</v>
+        <v>0.2059446057807838</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>143633</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>135046</v>
+        <v>135724</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>148468</v>
+        <v>149128</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9355841626300618</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8796500068963533</v>
+        <v>0.8840704365653221</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9670812845105444</v>
+        <v>0.9713810217292975</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>5</v>
@@ -1052,19 +1052,19 @@
         <v>5840</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1995</v>
+        <v>1956</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>11074</v>
+        <v>11209</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.288804387737837</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.09865647638340262</v>
+        <v>0.09670253009185049</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5475979087353059</v>
+        <v>0.5542553071818823</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>146</v>
@@ -1073,19 +1073,19 @@
         <v>149473</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>138978</v>
+        <v>137962</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>158522</v>
+        <v>157382</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8603032101604542</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7998986343164676</v>
+        <v>0.7940553942192172</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9123890022320664</v>
+        <v>0.905828463429336</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>11331</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6188</v>
+        <v>6142</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19521</v>
+        <v>19151</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0392844280551255</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02145186810154826</v>
+        <v>0.02129371301940993</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06767643524645664</v>
+        <v>0.06639455256933419</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>22</v>
@@ -1198,19 +1198,19 @@
         <v>22332</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>16967</v>
+        <v>17397</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>25395</v>
+        <v>25990</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7949748079070486</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6039971279881812</v>
+        <v>0.6192921353463011</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9039779024359799</v>
+        <v>0.9251655016338359</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>34</v>
@@ -1219,19 +1219,19 @@
         <v>33664</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>24578</v>
+        <v>23575</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>46006</v>
+        <v>45495</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1063507996627532</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07764685744484577</v>
+        <v>0.07447763196535404</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1453421190543749</v>
+        <v>0.1437294112741962</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>277111</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>268921</v>
+        <v>269291</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>282254</v>
+        <v>282300</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9607155719448744</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9323235647535434</v>
+        <v>0.9336054474306659</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9785481318984517</v>
+        <v>0.9787062869805903</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>6</v>
@@ -1269,19 +1269,19 @@
         <v>5760</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2697</v>
+        <v>2102</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>11125</v>
+        <v>10695</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2050251920929515</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.09602209756402007</v>
+        <v>0.07483449836616404</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3960028720118187</v>
+        <v>0.380707864653699</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>280</v>
@@ -1290,19 +1290,19 @@
         <v>282870</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>270528</v>
+        <v>271039</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>291956</v>
+        <v>292959</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8936492003372468</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8546578809456251</v>
+        <v>0.8562705887258039</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9223531425551543</v>
+        <v>0.9255223680346459</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>58234</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>45739</v>
+        <v>45691</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>73938</v>
+        <v>72442</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09140943368509716</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07179534688908103</v>
+        <v>0.07171976991690306</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1160590472222175</v>
+        <v>0.1137112351372763</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>87</v>
@@ -1415,19 +1415,19 @@
         <v>84753</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>74702</v>
+        <v>75015</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>92195</v>
+        <v>93128</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7612820140460446</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6709997508809942</v>
+        <v>0.6738099219088757</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8281344092272667</v>
+        <v>0.8365156411447534</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>147</v>
@@ -1436,19 +1436,19 @@
         <v>142987</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>122003</v>
+        <v>120591</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>163784</v>
+        <v>163512</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1910570746564169</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.163018556976202</v>
+        <v>0.1611308956145789</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2188454053989919</v>
+        <v>0.2184821459090389</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>578839</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>563135</v>
+        <v>564631</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>591334</v>
+        <v>591382</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9085905663149029</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8839409527777827</v>
+        <v>0.8862887648627237</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9282046531109192</v>
+        <v>0.9282802300830971</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>27</v>
@@ -1486,19 +1486,19 @@
         <v>26576</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>19134</v>
+        <v>18201</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>36627</v>
+        <v>36314</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2387179859539554</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1718655907727333</v>
+        <v>0.163484358855246</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3290002491190057</v>
+        <v>0.3261900780911237</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>606</v>
@@ -1507,19 +1507,19 @@
         <v>605415</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>584618</v>
+        <v>584890</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>626399</v>
+        <v>627811</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8089429253435831</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7811545946010081</v>
+        <v>0.7815178540909611</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8369814430237981</v>
+        <v>0.8388691043854211</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>12350</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6984</v>
+        <v>7078</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>20552</v>
+        <v>19595</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07898136080223817</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0446662378735696</v>
+        <v>0.0452700071551743</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1314374282906992</v>
+        <v>0.125319271391793</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>79</v>
@@ -1632,19 +1632,19 @@
         <v>81319</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>70405</v>
+        <v>71160</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>89254</v>
+        <v>89453</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7511538980600059</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6503355537080716</v>
+        <v>0.657312428222808</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8244443186424261</v>
+        <v>0.8262883659432664</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>92</v>
@@ -1653,19 +1653,19 @@
         <v>93669</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>78300</v>
+        <v>78950</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>110056</v>
+        <v>109988</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3539763343466673</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2958986596397759</v>
+        <v>0.2983525567814756</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.415902223527736</v>
+        <v>0.415646525331379</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>144010</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>135808</v>
+        <v>136765</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>149376</v>
+        <v>149282</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9210186391977618</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8685625717093007</v>
+        <v>0.8746807286082073</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9553337621264298</v>
+        <v>0.9547299928448261</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>27</v>
@@ -1703,19 +1703,19 @@
         <v>26940</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>19005</v>
+        <v>18806</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>37854</v>
+        <v>37099</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2488461019399942</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1755556813575727</v>
+        <v>0.1737116340567337</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3496644462919282</v>
+        <v>0.3426875717771921</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>168</v>
@@ -1724,19 +1724,19 @@
         <v>170950</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>154563</v>
+        <v>154631</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>186319</v>
+        <v>185669</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6460236656533327</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5840977764722646</v>
+        <v>0.5843534746686213</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7041013403602241</v>
+        <v>0.7016474432185248</v>
       </c>
     </row>
     <row r="18">
@@ -1841,19 +1841,19 @@
         <v>283872</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>270655</v>
+        <v>271687</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>294001</v>
+        <v>294706</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.8884697152444059</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.8471009103732476</v>
+        <v>0.8503317886884598</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.9201704619036041</v>
+        <v>0.9223781166848456</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>285</v>
@@ -1862,19 +1862,19 @@
         <v>285687</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>273235</v>
+        <v>273884</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>296000</v>
+        <v>296411</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.8890996644562883</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.8503473501821056</v>
+        <v>0.8523661916363504</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.9211944837045364</v>
+        <v>0.9224730742834133</v>
       </c>
     </row>
     <row r="20">
@@ -1904,19 +1904,19 @@
         <v>35635</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>25506</v>
+        <v>24801</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>48852</v>
+        <v>47820</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1115302847555941</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.07982953809639597</v>
+        <v>0.07762188331515443</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1528990896267524</v>
+        <v>0.1496682113115403</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>34</v>
@@ -1925,19 +1925,19 @@
         <v>35635</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>25322</v>
+        <v>24911</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>48087</v>
+        <v>47438</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1109003355437117</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.07880551629546358</v>
+        <v>0.07752692571658645</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1496526498178944</v>
+        <v>0.1476338083636494</v>
       </c>
     </row>
     <row r="21">
@@ -2029,19 +2029,19 @@
         <v>106185</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>89240</v>
+        <v>87178</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>129623</v>
+        <v>126350</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07516001129548727</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06316596294578324</v>
+        <v>0.06170635215121233</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0917499514714339</v>
+        <v>0.08943316991574403</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>505</v>
@@ -2050,19 +2050,19 @@
         <v>507414</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>485398</v>
+        <v>487304</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>525318</v>
+        <v>525635</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8290043296065239</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7930356921815003</v>
+        <v>0.7961499978401021</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8582567288181515</v>
+        <v>0.8587744168140747</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>612</v>
@@ -2071,19 +2071,19 @@
         <v>613599</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>574919</v>
+        <v>578415</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>656890</v>
+        <v>653927</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3030319794341965</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2839297524538583</v>
+        <v>0.2856560819088627</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3244116659756563</v>
+        <v>0.3229486351053823</v>
       </c>
     </row>
     <row r="23">
@@ -2100,19 +2100,19 @@
         <v>1306604</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1283166</v>
+        <v>1286439</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1323549</v>
+        <v>1325611</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9248399887045127</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9082500485285661</v>
+        <v>0.910566830084256</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9368340370542168</v>
+        <v>0.9382936478487878</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>103</v>
@@ -2121,19 +2121,19 @@
         <v>104662</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>86758</v>
+        <v>86441</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>126678</v>
+        <v>124772</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1709956703934761</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1417432711818485</v>
+        <v>0.1412255831859251</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2069643078184997</v>
+        <v>0.2038500021598977</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1397</v>
@@ -2142,19 +2142,19 @@
         <v>1411266</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1367975</v>
+        <v>1370938</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1449946</v>
+        <v>1446450</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6969680205658034</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6755883340243436</v>
+        <v>0.6770513648946177</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7160702475461417</v>
+        <v>0.7143439180911373</v>
       </c>
     </row>
     <row r="24">
@@ -2488,19 +2488,19 @@
         <v>13945</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7523</v>
+        <v>7260</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>25032</v>
+        <v>25538</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08900898946803733</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04801432881731741</v>
+        <v>0.04633658295237916</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1597714289914159</v>
+        <v>0.1630010479802403</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>19</v>
@@ -2509,19 +2509,19 @@
         <v>21709</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>14367</v>
+        <v>14987</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>28537</v>
+        <v>29036</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5121946000216295</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3389805264459993</v>
+        <v>0.3536060590808787</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6733073869993317</v>
+        <v>0.6850673669529809</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>30</v>
@@ -2530,19 +2530,19 @@
         <v>35654</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>23943</v>
+        <v>25382</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>48018</v>
+        <v>48596</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1791154594849478</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1202816916844122</v>
+        <v>0.1275113447713203</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2412277850104224</v>
+        <v>0.2441316943246039</v>
       </c>
     </row>
     <row r="5">
@@ -2559,19 +2559,19 @@
         <v>142728</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>131641</v>
+        <v>131135</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>149150</v>
+        <v>149413</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9109910105319626</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8402285710085851</v>
+        <v>0.8369989520197596</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9519856711826826</v>
+        <v>0.9536634170476208</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>17</v>
@@ -2580,19 +2580,19 @@
         <v>20675</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>13847</v>
+        <v>13348</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>28017</v>
+        <v>27397</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4878053999783705</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3266926130006682</v>
+        <v>0.3149326330470193</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6610194735540007</v>
+        <v>0.6463939409191214</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>145</v>
@@ -2601,19 +2601,19 @@
         <v>163403</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>151039</v>
+        <v>150461</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>175114</v>
+        <v>173675</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8208845405150522</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7587722149895776</v>
+        <v>0.7558683056753953</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8797183083155878</v>
+        <v>0.8724886552286798</v>
       </c>
     </row>
     <row r="6">
@@ -2705,19 +2705,19 @@
         <v>19652</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11754</v>
+        <v>11615</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>30617</v>
+        <v>31067</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1172245174988841</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07011015755746355</v>
+        <v>0.06928418039071789</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1826282124487885</v>
+        <v>0.1853133639225984</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>21</v>
@@ -2726,19 +2726,19 @@
         <v>25830</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>18669</v>
+        <v>17824</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>32984</v>
+        <v>32254</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5662525167263375</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4092541288830453</v>
+        <v>0.3907503352064917</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7230809452354443</v>
+        <v>0.7070708035143785</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>37</v>
@@ -2747,19 +2747,19 @@
         <v>45482</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>32640</v>
+        <v>33532</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>61051</v>
+        <v>60644</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2132711691971427</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1530523304210305</v>
+        <v>0.1572368206684318</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2862751221970785</v>
+        <v>0.2843684538472245</v>
       </c>
     </row>
     <row r="8">
@@ -2776,19 +2776,19 @@
         <v>147992</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>137027</v>
+        <v>136577</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>155890</v>
+        <v>156029</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8827754825011159</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8173717875512118</v>
+        <v>0.8146866360774017</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9298898424425366</v>
+        <v>0.9307158196092822</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>18</v>
@@ -2797,19 +2797,19 @@
         <v>19786</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>12632</v>
+        <v>13362</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>26947</v>
+        <v>27792</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4337474832736626</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2769190547645557</v>
+        <v>0.2929291964856215</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.590745871116955</v>
+        <v>0.6092496647935084</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>153</v>
@@ -2818,19 +2818,19 @@
         <v>167778</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>152209</v>
+        <v>152616</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>180620</v>
+        <v>179728</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7867288308028573</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7137248778029214</v>
+        <v>0.715631546152775</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8469476695789695</v>
+        <v>0.8427631793315682</v>
       </c>
     </row>
     <row r="9">
@@ -2922,19 +2922,19 @@
         <v>41542</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>28905</v>
+        <v>30259</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>56970</v>
+        <v>55837</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1305589677685664</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09084216914530528</v>
+        <v>0.09509732366375027</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.179045267814247</v>
+        <v>0.1754854534988947</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>38</v>
@@ -2943,19 +2943,19 @@
         <v>41908</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>34080</v>
+        <v>33551</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>49283</v>
+        <v>48739</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6430743801652583</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.522949989069173</v>
+        <v>0.5148352914415838</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7562515392038919</v>
+        <v>0.747904209911359</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>72</v>
@@ -2964,19 +2964,19 @@
         <v>83450</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>66868</v>
+        <v>67968</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>102360</v>
+        <v>102549</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2176832148036925</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1744280647506194</v>
+        <v>0.177298610115152</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2670122646908481</v>
+        <v>0.2675048945907993</v>
       </c>
     </row>
     <row r="11">
@@ -2993,19 +2993,19 @@
         <v>276645</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>261217</v>
+        <v>262350</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>289282</v>
+        <v>287928</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8694410322314335</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.820954732185753</v>
+        <v>0.8245145465011052</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9091578308546947</v>
+        <v>0.9049026763362498</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>22</v>
@@ -3014,19 +3014,19 @@
         <v>23260</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>15885</v>
+        <v>16429</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>31088</v>
+        <v>31617</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3569256198347417</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2437484607961081</v>
+        <v>0.2520957900886409</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4770500109308266</v>
+        <v>0.4851647085584162</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>287</v>
@@ -3035,19 +3035,19 @@
         <v>299904</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>280994</v>
+        <v>280805</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>316486</v>
+        <v>315386</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7823167851963074</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7329877353091518</v>
+        <v>0.7324951054092008</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8255719352493802</v>
+        <v>0.8227013898848481</v>
       </c>
     </row>
     <row r="12">
@@ -3139,19 +3139,19 @@
         <v>62170</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>48672</v>
+        <v>48443</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>79126</v>
+        <v>80176</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.117641232727586</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09209855171479783</v>
+        <v>0.09166616332884714</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.149725318088624</v>
+        <v>0.1517130217700758</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>72</v>
@@ -3160,19 +3160,19 @@
         <v>79177</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>66460</v>
+        <v>65609</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>92589</v>
+        <v>91540</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4944900037201538</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4150673090133218</v>
+        <v>0.409756505808492</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5782536104327436</v>
+        <v>0.5717041993881766</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>129</v>
@@ -3181,19 +3181,19 @@
         <v>141347</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>120728</v>
+        <v>118786</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>164184</v>
+        <v>163626</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2052700771640227</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1753260970485033</v>
+        <v>0.1725063670655283</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2384348356502671</v>
+        <v>0.2376251150541821</v>
       </c>
     </row>
     <row r="14">
@@ -3210,19 +3210,19 @@
         <v>466302</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>449346</v>
+        <v>448296</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>479800</v>
+        <v>480029</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.882358767272414</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8502746819113761</v>
+        <v>0.8482869782299243</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9079014482852023</v>
+        <v>0.908333836671153</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>75</v>
@@ -3231,19 +3231,19 @@
         <v>80941</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>67529</v>
+        <v>68578</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>93658</v>
+        <v>94509</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5055099962798462</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4217463895672564</v>
+        <v>0.4282958006118233</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5849326909866782</v>
+        <v>0.590243494191508</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>514</v>
@@ -3252,19 +3252,19 @@
         <v>547243</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>524406</v>
+        <v>524964</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>567862</v>
+        <v>569804</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7947299228359773</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.761565164349733</v>
+        <v>0.7623748849458178</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8246739029514969</v>
+        <v>0.8274936329344718</v>
       </c>
     </row>
     <row r="15">
@@ -3356,19 +3356,19 @@
         <v>35555</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>25516</v>
+        <v>25505</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>46840</v>
+        <v>47505</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1750421148058326</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1256169575423988</v>
+        <v>0.1255633387211053</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2305979794554691</v>
+        <v>0.2338721741754375</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>149</v>
@@ -3377,19 +3377,19 @@
         <v>160843</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>144472</v>
+        <v>145394</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>176339</v>
+        <v>176832</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6099050287705317</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5478265625382099</v>
+        <v>0.5513228977383338</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6686652098333395</v>
+        <v>0.670534192619096</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>183</v>
@@ -3398,19 +3398,19 @@
         <v>196398</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>174373</v>
+        <v>176379</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>217565</v>
+        <v>219541</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4206958718804153</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3735162800536367</v>
+        <v>0.3778137448485146</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4660374612277277</v>
+        <v>0.4702697452630754</v>
       </c>
     </row>
     <row r="17">
@@ -3427,19 +3427,19 @@
         <v>167568</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>156283</v>
+        <v>155618</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>177607</v>
+        <v>177618</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8249578851941674</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7694020205445309</v>
+        <v>0.7661278258245623</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8743830424576013</v>
+        <v>0.8744366612788944</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>95</v>
@@ -3448,19 +3448,19 @@
         <v>102875</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>87379</v>
+        <v>86886</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>119246</v>
+        <v>118324</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3900949712294684</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3313347901666612</v>
+        <v>0.329465807380904</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4521734374617905</v>
+        <v>0.4486771022616662</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>253</v>
@@ -3469,19 +3469,19 @@
         <v>270443</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>249276</v>
+        <v>247300</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>292468</v>
+        <v>290462</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5793041281195848</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5339625387722723</v>
+        <v>0.5297302547369246</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6264837199463632</v>
+        <v>0.6221862551514854</v>
       </c>
     </row>
     <row r="18">
@@ -3586,19 +3586,19 @@
         <v>291992</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>277940</v>
+        <v>277868</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>302450</v>
+        <v>304057</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.8651475653560127</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.8235099473626272</v>
+        <v>0.8232969430142122</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8961336063440425</v>
+        <v>0.9008922162910842</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>271</v>
@@ -3607,19 +3607,19 @@
         <v>291992</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>277302</v>
+        <v>277419</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>302837</v>
+        <v>304289</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.8619544215979483</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.8185902422316707</v>
+        <v>0.8189341073516988</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.8939669434257866</v>
+        <v>0.8982530610287369</v>
       </c>
     </row>
     <row r="20">
@@ -3649,19 +3649,19 @@
         <v>45514</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>35056</v>
+        <v>33449</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>59566</v>
+        <v>59638</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1348524346439874</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1038663936559573</v>
+        <v>0.09910778370891578</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1764900526373728</v>
+        <v>0.1767030569857873</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>44</v>
@@ -3670,19 +3670,19 @@
         <v>46764</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>35919</v>
+        <v>34467</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>61454</v>
+        <v>61337</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1380455784020517</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1060330565742134</v>
+        <v>0.101746938971263</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1814097577683294</v>
+        <v>0.1810658926483011</v>
       </c>
     </row>
     <row r="21">
@@ -3774,19 +3774,19 @@
         <v>172865</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>146968</v>
+        <v>146852</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>201104</v>
+        <v>199626</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1256878019828432</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1068585417763562</v>
+        <v>0.1067740754186132</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1462203184004502</v>
+        <v>0.1451453997702109</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>570</v>
@@ -3795,19 +3795,19 @@
         <v>621459</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>591683</v>
+        <v>592335</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>650636</v>
+        <v>650548</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6795539782807705</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6469947723587129</v>
+        <v>0.6477079036000364</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7114582080958485</v>
+        <v>0.7113620913456928</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>722</v>
@@ -3816,19 +3816,19 @@
         <v>794324</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>747592</v>
+        <v>749588</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>842419</v>
+        <v>842197</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3468875489360638</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3264795666924452</v>
+        <v>0.3273513266500563</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.367891398315754</v>
+        <v>0.3677942785516591</v>
       </c>
     </row>
     <row r="23">
@@ -3845,19 +3845,19 @@
         <v>1202484</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1174245</v>
+        <v>1175723</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1228381</v>
+        <v>1228497</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8743121980171568</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8537796815995498</v>
+        <v>0.8548546002297891</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8931414582236438</v>
+        <v>0.8932259245813866</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>270</v>
@@ -3866,19 +3866,19 @@
         <v>293051</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>263874</v>
+        <v>263962</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>322827</v>
+        <v>322175</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3204460217192295</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2885417919041514</v>
+        <v>0.2886379086543069</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3530052276412868</v>
+        <v>0.3522920963999633</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1396</v>
@@ -3887,19 +3887,19 @@
         <v>1495535</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1447440</v>
+        <v>1447662</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1542267</v>
+        <v>1540271</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6531124510639362</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6321086016842461</v>
+        <v>0.6322057214483409</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6735204333075548</v>
+        <v>0.6726486733499436</v>
       </c>
     </row>
     <row r="24">
@@ -4233,19 +4233,19 @@
         <v>19367</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11927</v>
+        <v>12775</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>29881</v>
+        <v>29289</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1487787481348503</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09162139100284263</v>
+        <v>0.09813901186679146</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2295473964925971</v>
+        <v>0.2250015701895381</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -4254,19 +4254,19 @@
         <v>23370</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>16107</v>
+        <v>16151</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>29622</v>
+        <v>29557</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5432391940918301</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3744218067894347</v>
+        <v>0.3754443372205306</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6885873047320817</v>
+        <v>0.6870777970744751</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>40</v>
@@ -4275,19 +4275,19 @@
         <v>42737</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>32682</v>
+        <v>31742</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>55775</v>
+        <v>54811</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2467575947412191</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1887052229024022</v>
+        <v>0.1832762392817898</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3220422205750829</v>
+        <v>0.3164758796121475</v>
       </c>
     </row>
     <row r="5">
@@ -4304,19 +4304,19 @@
         <v>110807</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>100293</v>
+        <v>100885</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>118247</v>
+        <v>117399</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8512212518651496</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7704526035074021</v>
+        <v>0.7749984298104617</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9083786089971572</v>
+        <v>0.9018609881332085</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>19</v>
@@ -4325,19 +4325,19 @@
         <v>19649</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>13397</v>
+        <v>13462</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>26912</v>
+        <v>26868</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4567608059081699</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3114126952679183</v>
+        <v>0.3129222029255249</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6255781932105653</v>
+        <v>0.6245556627794694</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>125</v>
@@ -4346,19 +4346,19 @@
         <v>130456</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>117418</v>
+        <v>118382</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>140511</v>
+        <v>141451</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7532424052587808</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6779577794249172</v>
+        <v>0.6835241203878526</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8112947770975979</v>
+        <v>0.8167237607182103</v>
       </c>
     </row>
     <row r="6">
@@ -4450,19 +4450,19 @@
         <v>22474</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>14678</v>
+        <v>14540</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>31920</v>
+        <v>32030</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1429883381657515</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09338820830284994</v>
+        <v>0.0925122837062656</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2030907701105296</v>
+        <v>0.2037882416293774</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>15</v>
@@ -4471,19 +4471,19 @@
         <v>17576</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>10643</v>
+        <v>11373</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>23867</v>
+        <v>24535</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4189960871794537</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2537234482006657</v>
+        <v>0.2711377828457973</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5689835054881027</v>
+        <v>0.5849153853345608</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>37</v>
@@ -4492,19 +4492,19 @@
         <v>40049</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>28949</v>
+        <v>28435</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>53071</v>
+        <v>52086</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2011330855288587</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1453874351711905</v>
+        <v>0.1428036973046837</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2665283569051717</v>
+        <v>0.2615857135152144</v>
       </c>
     </row>
     <row r="8">
@@ -4521,19 +4521,19 @@
         <v>134697</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>125251</v>
+        <v>125141</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>142493</v>
+        <v>142631</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8570116618342485</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7969092298894702</v>
+        <v>0.7962117583706225</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9066117916971501</v>
+        <v>0.9074877162937344</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>23</v>
@@ -4542,19 +4542,19 @@
         <v>24371</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>18080</v>
+        <v>17412</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>31304</v>
+        <v>30574</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5810039128205463</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4310164945118972</v>
+        <v>0.4150846146654392</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7462765517993341</v>
+        <v>0.7288622171542027</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>151</v>
@@ -4563,19 +4563,19 @@
         <v>159069</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>146047</v>
+        <v>147032</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>170169</v>
+        <v>170683</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7988669144711413</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7334716430948283</v>
+        <v>0.7384142864847857</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8546125648288094</v>
+        <v>0.8571963026953163</v>
       </c>
     </row>
     <row r="9">
@@ -4667,19 +4667,19 @@
         <v>34085</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>24417</v>
+        <v>25187</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>46026</v>
+        <v>46191</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1273427439157949</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09122126220537367</v>
+        <v>0.0940969896157253</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1719536317632657</v>
+        <v>0.1725688525641539</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>25</v>
@@ -4688,19 +4688,19 @@
         <v>31404</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>24833</v>
+        <v>24250</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>37698</v>
+        <v>37253</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6734382670223784</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5325301723831033</v>
+        <v>0.5200229984968731</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8084077424580632</v>
+        <v>0.798863794703222</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>60</v>
@@ -4709,19 +4709,19 @@
         <v>65489</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>51721</v>
+        <v>49454</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>82754</v>
+        <v>80350</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2083661809894528</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1645603096485841</v>
+        <v>0.1573461622072399</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2632974569700252</v>
+        <v>0.2556495892884412</v>
       </c>
     </row>
     <row r="11">
@@ -4738,19 +4738,19 @@
         <v>233582</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>221641</v>
+        <v>221476</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>243250</v>
+        <v>242480</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8726572560842052</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8280463682367343</v>
+        <v>0.8274311474358461</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9087787377946263</v>
+        <v>0.9059030103842747</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>15</v>
@@ -4759,19 +4759,19 @@
         <v>15228</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>8934</v>
+        <v>9379</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>21799</v>
+        <v>22382</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3265617329776216</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1915922575419368</v>
+        <v>0.2011362052967779</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4674698276168965</v>
+        <v>0.4799770015031269</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>237</v>
@@ -4780,19 +4780,19 @@
         <v>248810</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>231545</v>
+        <v>233949</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>262578</v>
+        <v>264845</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7916338190105472</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7367025430299747</v>
+        <v>0.7443504107115587</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8354396903514159</v>
+        <v>0.84265383779276</v>
       </c>
     </row>
     <row r="12">
@@ -4884,19 +4884,19 @@
         <v>57282</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>43601</v>
+        <v>44447</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>73117</v>
+        <v>71759</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1070565775620537</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08148710928834303</v>
+        <v>0.08306749878004462</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1366509133621302</v>
+        <v>0.1341131996618261</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>76</v>
@@ -4905,19 +4905,19 @@
         <v>87679</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>73962</v>
+        <v>74107</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>100376</v>
+        <v>100795</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.540982767339335</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4563473447876871</v>
+        <v>0.4572428395270963</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6193207114606417</v>
+        <v>0.6219077594239558</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>134</v>
@@ -4926,19 +4926,19 @@
         <v>144961</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>123480</v>
+        <v>125479</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>168968</v>
+        <v>169476</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2079375517383175</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1771236624514641</v>
+        <v>0.1799911067288668</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2423730686555608</v>
+        <v>0.2431015309061098</v>
       </c>
     </row>
     <row r="14">
@@ -4955,19 +4955,19 @@
         <v>477784</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>461949</v>
+        <v>463307</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>491465</v>
+        <v>490619</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8929434224379462</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8633490866378691</v>
+        <v>0.8658868003381741</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9185128907116569</v>
+        <v>0.9169325012199555</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>72</v>
@@ -4976,19 +4976,19 @@
         <v>74395</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>61698</v>
+        <v>61279</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>88112</v>
+        <v>87967</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.459017232660665</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3806792885393585</v>
+        <v>0.3780922405760441</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5436526552123129</v>
+        <v>0.5427571604729037</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>533</v>
@@ -4997,19 +4997,19 @@
         <v>552178</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>528171</v>
+        <v>527663</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>573659</v>
+        <v>571660</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7920624482616825</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7576269313444391</v>
+        <v>0.7568984690938896</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8228763375485358</v>
+        <v>0.820008893271133</v>
       </c>
     </row>
     <row r="15">
@@ -5101,19 +5101,19 @@
         <v>35876</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>25609</v>
+        <v>26282</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>49407</v>
+        <v>49395</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1377521505900689</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09833076675715816</v>
+        <v>0.1009144146676112</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1897055207032922</v>
+        <v>0.1896600056697695</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>112</v>
@@ -5122,19 +5122,19 @@
         <v>123553</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>107444</v>
+        <v>107710</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>138323</v>
+        <v>139398</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.516112490918336</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4488220257880901</v>
+        <v>0.4499328399072386</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5778114479023208</v>
+        <v>0.582300269049549</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>147</v>
@@ -5143,19 +5143,19 @@
         <v>159430</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>139383</v>
+        <v>138568</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>180701</v>
+        <v>181965</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.318965706074581</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2788587329641286</v>
+        <v>0.2772288472781175</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3615219933457908</v>
+        <v>0.3640516666766547</v>
       </c>
     </row>
     <row r="17">
@@ -5172,19 +5172,19 @@
         <v>224565</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>211034</v>
+        <v>211046</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>234832</v>
+        <v>234159</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.862247849409931</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8102944792967079</v>
+        <v>0.8103399943302305</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9016692332428422</v>
+        <v>0.8990855853323889</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>113</v>
@@ -5193,19 +5193,19 @@
         <v>115839</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>101069</v>
+        <v>99994</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>131948</v>
+        <v>131682</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4838875090816639</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4221885520976792</v>
+        <v>0.417699730950451</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5511779742119099</v>
+        <v>0.5500671600927615</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>330</v>
@@ -5214,19 +5214,19 @@
         <v>340403</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>319132</v>
+        <v>317868</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>360450</v>
+        <v>361265</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.681034293925419</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6384780066542092</v>
+        <v>0.6359483333233451</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7211412670358713</v>
+        <v>0.7227711527218824</v>
       </c>
     </row>
     <row r="18">
@@ -5331,19 +5331,19 @@
         <v>304935</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>287390</v>
+        <v>290005</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>316789</v>
+        <v>317524</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.8519402232722675</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.8029236532505795</v>
+        <v>0.8102279341622133</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8850593792566371</v>
+        <v>0.8871128566703474</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>268</v>
@@ -5352,19 +5352,19 @@
         <v>304935</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>290229</v>
+        <v>289368</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>318023</v>
+        <v>318515</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.8374593467225846</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.7970712438731933</v>
+        <v>0.7947074324258441</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.873404778545982</v>
+        <v>0.8747561586689171</v>
       </c>
     </row>
     <row r="20">
@@ -5394,19 +5394,19 @@
         <v>52995</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>41141</v>
+        <v>40406</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>70540</v>
+        <v>67925</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1480597767277325</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1149406207433629</v>
+        <v>0.1128871433296525</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1970763467494205</v>
+        <v>0.1897720658377867</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>55</v>
@@ -5415,19 +5415,19 @@
         <v>59184</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>46096</v>
+        <v>45604</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>73890</v>
+        <v>74751</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1625406532774154</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1265952214540181</v>
+        <v>0.125243841331083</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2029287561268068</v>
+        <v>0.2052925675741559</v>
       </c>
     </row>
     <row r="21">
@@ -5519,19 +5519,19 @@
         <v>169085</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>144869</v>
+        <v>144726</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>193811</v>
+        <v>194863</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1246287533722764</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.106779796204086</v>
+        <v>0.1066744549480229</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1428540589269578</v>
+        <v>0.1436293168911422</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>517</v>
@@ -5540,19 +5540,19 @@
         <v>588516</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>558033</v>
+        <v>559032</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>615917</v>
+        <v>615490</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6605167143971865</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.626303799847133</v>
+        <v>0.6274252435728794</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6912698705070334</v>
+        <v>0.6907906886948779</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>686</v>
@@ -5561,19 +5561,19 @@
         <v>757601</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>710048</v>
+        <v>712241</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>806208</v>
+        <v>802596</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.337055966442611</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3158996021968037</v>
+        <v>0.31687554235082</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3586812603918197</v>
+        <v>0.3570740973641137</v>
       </c>
     </row>
     <row r="23">
@@ -5590,19 +5590,19 @@
         <v>1187622</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1162896</v>
+        <v>1161844</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1211838</v>
+        <v>1211981</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8753712466277236</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8571459410730422</v>
+        <v>0.856370683108858</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8932202037959142</v>
+        <v>0.8933255450519773</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>291</v>
@@ -5611,19 +5611,19 @@
         <v>302478</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>275077</v>
+        <v>275504</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>332961</v>
+        <v>331962</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3394832856028135</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3087301294929664</v>
+        <v>0.3092093113051221</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3736962001528669</v>
+        <v>0.3725747564271205</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1431</v>
@@ -5632,19 +5632,19 @@
         <v>1490100</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1441493</v>
+        <v>1445105</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1537653</v>
+        <v>1535460</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6629440335573891</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.641318739608181</v>
+        <v>0.642925902635886</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6841003978031964</v>
+        <v>0.6831244576491797</v>
       </c>
     </row>
     <row r="24">
